--- a/biology/Botanique/Parthenocissus_quinquefolia/Parthenocissus_quinquefolia.xlsx
+++ b/biology/Botanique/Parthenocissus_quinquefolia/Parthenocissus_quinquefolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vigne-vierge vraie
 La vigne-vierge vraie, vigne-vierge à cinq folioles ou vigne-vierge de Virginie (Parthenocissus quinquefolia) est un arbuste sarmenteux de la famille des vitacées, originaire d'Amérique du Nord et cultivé très largement comme plante grimpante ornementale pour son feuillage décoratif qui prend une belle teinte rouge écarlate en automne.
@@ -512,11 +524,13 @@
           <t>Nomenclature et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’espèce a été décrite et nommée Hedera quinquefolia, par Linné en 1753 dans Species Plantarum 1: 202.
-En 1887, le botaniste Jules Émile Planchon crée de genre Parthenocissus et transfère l’espèce du genre Hedera au genre Parthenocissus dans  Monographiae Phanerogamarum 5(2): 448 (dirigée par Alphonse Pyrame de Candolle et son fils Casimir Pyrame de Candolle)[1].
-Le nom de genre Parthenocissus est un nom composé de latin scientifique, formé à partir du grec ancien παρθένος (parthenos) « vierge » et de κισσός (kissos) « lierre »[n 1], soit « lierre vierge ». Ce qualificatif de vierge ne s’applique pas à la reproduction de la plante mais à son origine, l’État de Virginie. D’après François Couplan[2], la plante est appelée en anglais Virginia creeper, « plante grimpante de Virginie » ; l’état de Virginie (Virginia) aux États-Unis, ayant été nommé d’après la « reine vierge », Élisabeth Ire (reine d'Angleterre) qui ne s'est jamais mariée.
+En 1887, le botaniste Jules Émile Planchon crée de genre Parthenocissus et transfère l’espèce du genre Hedera au genre Parthenocissus dans  Monographiae Phanerogamarum 5(2): 448 (dirigée par Alphonse Pyrame de Candolle et son fils Casimir Pyrame de Candolle).
+Le nom de genre Parthenocissus est un nom composé de latin scientifique, formé à partir du grec ancien παρθένος (parthenos) « vierge » et de κισσός (kissos) « lierre »[n 1], soit « lierre vierge ». Ce qualificatif de vierge ne s’applique pas à la reproduction de la plante mais à son origine, l’État de Virginie. D’après François Couplan, la plante est appelée en anglais Virginia creeper, « plante grimpante de Virginie » ; l’état de Virginie (Virginia) aux États-Unis, ayant été nommé d’après la « reine vierge », Élisabeth Ire (reine d'Angleterre) qui ne s'est jamais mariée.
 L’épithète spécifique quinquefolia est un terme de latin botanique composé de quinque « cinq » et de folia dérivé du latin folium « feuille », allusion aux feuilles à 5 folioles de la plante.
 </t>
         </is>
@@ -546,18 +560,89 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon POWO[3], le nom valide Parthenocissus quinquefolia possède 79 synonymes :
-Synonymes homotypiques
-Hedera quinquefolia L. in Sp. Pl.: 202 (1753)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon POWO, le nom valide Parthenocissus quinquefolia possède 79 synonymes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes homotypiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hedera quinquefolia L. in Sp. Pl.: 202 (1753)
 Ampelopsis quinquefolia (L.) Michx. in Fl. Bor.-Amer. 1: 159 (1803)
 Cissus hederacea Pers. in Syn. Pl. 1: 143 (1805), nom. superfl.
 Cissus quinquefolia (Michx.) Desf. in Tabl. École Bot., ed. 3: 238 (1829)
 Quinaria hederacea Raf. in Med. Fl. 2: 122 (1830), nom. illeg.
-Quinaria quinquefolia (L.) Koehne in Gartenflora 41: 403 (1892)
-Synonymes hétérotypiques
-Hedera carnosa W.Bartram in Travels Carolina: 243 (1791)
+Quinaria quinquefolia (L.) Koehne in Gartenflora 41: 403 (1892)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes hétérotypiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hedera carnosa W.Bartram in Travels Carolina: 243 (1791)
 Ampelocissus cirrhata Voss in Vilm. Blumengärtn., ed. 3. 1: 182 (1894)
 Ampelocissus major Voss in Vilm. Blumengärtn., ed. 3. 1: 182 (1894)
 etc.
@@ -565,33 +650,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Parthenocissus_quinquefolia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vigne-vierge vraie est un arbuste grimpant (liane) à tiges robustes, très vigoureux, pouvant atteindre 20 m de haut. Les jeunes pousses sont rougeâtres. Les rameaux sont cylindriques et glabres[4]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vigne-vierge vraie est un arbuste grimpant (liane) à tiges robustes, très vigoureux, pouvant atteindre 20 m de haut. Les jeunes pousses sont rougeâtres. Les rameaux sont cylindriques et glabres
 Ses feuilles caduques sont composées digitées à cinq (parfois de trois ou sept) folioles elliptiques de 5 à 14 cm de long, acuminées, à bords à longues dents mucronées. De couleur vert-gris, elles virent à l'écarlate en automne.
 À l’opposé du point d’insertion de la feuille sur la tige se trouvent soit une vrille soit une inflorescence. Chaque vrille a de 7 à 9 ramifications qui jeunes se recourbent à l'apex pour former un petit crochet. Au contact d'une surface celui-ci peut ensuite donner une pelote adhésive libérant des substances adhésives[n 2].
 Les fleurs sont groupées en racèmes de cymes bipares. Elles sont formées d’un calice entier, de 5 pétales libres, 5 étamines opposées aux pétales et d’un ovaire conique. La floraison a lieu en juin-juillet.
@@ -605,31 +692,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Parthenocissus_quinquefolia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La littérature et les centres antipoison ne signalent pas d'intoxications graves mais des irritations buccales et des troubles digestifs consécutifs à l'ingestion de faibles quantités de baies. Leur consommation en grandes quantités (probablement plusieurs dizaines de fruits) entrainerait des troubles neurologiques et des atteintes rénales.
 Ces plantes contiennent de l'oxalate de calcium, qui semble être la cause de leur toxicité.
@@ -638,33 +727,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Parthenocissus_quinquefolia</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distribution, habitat, écologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon POWO[3], la vigne-vierge vraie est une espèce originaire d'Amérique du Nord (Canada, États-Unis, Mexique) et Guatemala, en deux zones : au nord-est, du Québec au Minnesota, et au sud-est, de la Floride au Mexique.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon POWO, la vigne-vierge vraie est une espèce originaire d'Amérique du Nord (Canada, États-Unis, Mexique) et Guatemala, en deux zones : au nord-est, du Québec au Minnesota, et au sud-est, de la Floride au Mexique.
 Elle a été introduite dans divers pays comme la France, la Grande-Bretagne, l’Autriche, l’Allemagne, la Grèce, la Hongrie, les Pays-Bas, la Roumanie, la Russie d’Europe, une partie de la Chine, le Kazakhstan, la Corée, le Tadjikistan, l’Ouzbékistan, la Tunisie, l’Algérie. Elle s'est naturalisée dans ces pays.
 Elle pousse dans son aire de répartition dans la plupart des sols humides. En forêt, elle grimpe dans les arbres.
 Elle est cultivée dans de nombreux pays du monde de la zone tempérée où elle est parfois, comme en Suisse, considérée comme une plante invasive interdite de culture. Elle résiste l'hiver à des températures descendant jusqu'à −25 °C.
@@ -672,31 +763,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Parthenocissus_quinquefolia</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Principales variétés cultivées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>engelmannii, à feuillage plus fin que le type, feuilles lancéolées.
 murorum, feuilles plus larges que le type, plus vigoureuses ; vrilles à 8-12 ramifications.
@@ -704,31 +797,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Parthenocissus_quinquefolia</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Espèces voisines</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Parthenocissus vitacea, vigne-vierge commune, vigne-vierge à cinq folioles, vigne-vierge américaine
 Parthenocissus tricuspidata, vigne-vierge, lierre japonais, lierre de Boston.
@@ -736,33 +831,35 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Parthenocissus_quinquefolia</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parthenocissus_quinquefolia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est utilisée comme plante ornementale pour verdir les murs. Elle contribue à la régulation thermique des bâtiments[5].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est utilisée comme plante ornementale pour verdir les murs. Elle contribue à la régulation thermique des bâtiments.
 Elle est de plus en plus utilisée pour le reboisement de la bande riveraine des cours d'eau puisqu'elle est robuste et qu'elle permet de recouvrir des murets de ciment ou de pierre. Elle est également appréciée pour son aspect esthétique. De plus, elle est capable de résister aux invasions de sauterelles courantes à la fin du printemps.
 En général, la vigne-vierge ne cause pas de dommages structuraux aux murs sur lesquels elle grimpe car elle utilise de ventouses pour s’attacher.
 </t>
